--- a/input/other energy filter.xlsx
+++ b/input/other energy filter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DDPTemplateAutomationV2\input\FilterScripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TemplateAutomaterV2\DDPTemplateAutomationV2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1F5A23-3C01-4CBE-B286-BFBCBE450884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AE6449-25C2-4463-8ECA-6D3D3509D16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18375" windowHeight="21150" tabRatio="705" xr2:uid="{93072CBE-95F2-4983-8E5A-0DD653CBAE35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="705" xr2:uid="{93072CBE-95F2-4983-8E5A-0DD653CBAE35}"/>
   </bookViews>
   <sheets>
     <sheet name="OTHER ENERGY SUPPLY (STL)_REF" sheetId="1" r:id="rId1"/>
@@ -959,36 +959,36 @@
   <dimension ref="A1:U527"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D356" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C387" sqref="C387:U387"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="3.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="1"/>
-    <col min="15" max="15" width="33.109375" style="1" customWidth="1"/>
-    <col min="16" max="18" width="8.6640625" style="1"/>
-    <col min="19" max="19" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1"/>
+    <col min="15" max="15" width="33.140625" style="1" customWidth="1"/>
+    <col min="16" max="18" width="8.7109375" style="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" customWidth="1"/>
     <col min="20" max="20" width="14" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.6640625" style="1"/>
+    <col min="21" max="21" width="17.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>A$2</f>
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" ref="A4:B67" si="0">A$2</f>
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1328,7 +1328,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1398,7 +1398,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1538,7 +1538,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1608,7 +1608,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1748,7 +1748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1818,7 +1818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1958,7 +1958,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2028,7 +2028,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2098,7 +2098,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2168,7 +2168,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2238,7 +2238,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2308,7 +2308,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2378,7 +2378,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2448,7 +2448,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2518,7 +2518,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2588,7 +2588,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2658,7 +2658,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2728,7 +2728,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2798,7 +2798,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2868,7 +2868,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2938,7 +2938,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3008,7 +3008,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3078,7 +3078,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3148,7 +3148,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3218,7 +3218,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3288,7 +3288,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3358,7 +3358,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3428,7 +3428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3498,7 +3498,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3568,7 +3568,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3638,7 +3638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3708,7 +3708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3778,7 +3778,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3848,7 +3848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3918,7 +3918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3988,7 +3988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4058,7 +4058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4128,7 +4128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4198,7 +4198,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4233,7 +4233,7 @@
       <c r="S47" s="2"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4273,7 +4273,7 @@
       <c r="S48" s="2"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4308,7 +4308,7 @@
       <c r="S49" s="2"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4378,7 +4378,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4448,7 +4448,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4518,7 +4518,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4588,7 +4588,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4658,7 +4658,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4728,7 +4728,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4798,7 +4798,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4868,7 +4868,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4938,7 +4938,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5008,7 +5008,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5078,7 +5078,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5148,7 +5148,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5218,7 +5218,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5288,7 +5288,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5358,7 +5358,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5428,7 +5428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5498,7 +5498,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5568,7 +5568,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <f t="shared" ref="A68:B131" si="5">A$2</f>
         <v>1</v>
@@ -5638,7 +5638,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -5708,7 +5708,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -5778,7 +5778,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -5848,7 +5848,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -5918,7 +5918,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -5988,7 +5988,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6058,7 +6058,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6128,7 +6128,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6198,7 +6198,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6268,7 +6268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6338,7 +6338,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6408,7 +6408,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6478,7 +6478,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6548,7 +6548,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6618,7 +6618,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6688,7 +6688,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6758,7 +6758,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6828,7 +6828,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6898,7 +6898,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6968,7 +6968,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7038,7 +7038,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7108,7 +7108,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7178,7 +7178,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7248,7 +7248,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7318,7 +7318,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7388,7 +7388,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7458,7 +7458,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7528,7 +7528,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7598,7 +7598,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7626,7 +7626,7 @@
       <c r="S97" s="2"/>
       <c r="U97" s="2"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7696,7 +7696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7766,7 +7766,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7836,7 +7836,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7906,7 +7906,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7976,7 +7976,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8046,7 +8046,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8116,7 +8116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8186,7 +8186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8256,7 +8256,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8326,7 +8326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8396,7 +8396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8466,7 +8466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8536,7 +8536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8606,7 +8606,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8676,7 +8676,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8705,7 +8705,7 @@
       <c r="S113" s="2"/>
       <c r="U113" s="2"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8734,7 +8734,7 @@
       <c r="S114" s="2"/>
       <c r="U114" s="2"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8763,7 +8763,7 @@
       <c r="S115" s="2"/>
       <c r="U115" s="2"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8792,7 +8792,7 @@
       <c r="S116" s="2"/>
       <c r="U116" s="2"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8821,7 +8821,7 @@
       <c r="S117" s="2"/>
       <c r="U117" s="2"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8850,7 +8850,7 @@
       <c r="S118" s="2"/>
       <c r="U118" s="2"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8879,7 +8879,7 @@
       <c r="S119" s="2"/>
       <c r="U119" s="2"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8908,7 +8908,7 @@
       <c r="S120" s="2"/>
       <c r="U120" s="2"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8978,7 +8978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9048,7 +9048,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9118,7 +9118,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9188,7 +9188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9258,7 +9258,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9328,7 +9328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9398,7 +9398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9468,7 +9468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9538,7 +9538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9608,7 +9608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9678,7 +9678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <f t="shared" ref="A132:B195" si="8">A$2</f>
         <v>1</v>
@@ -9748,7 +9748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -9818,7 +9818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -9888,7 +9888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -9958,7 +9958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10028,7 +10028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10098,7 +10098,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10168,7 +10168,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10238,7 +10238,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10308,7 +10308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10378,7 +10378,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10448,7 +10448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10518,7 +10518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10588,7 +10588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10658,7 +10658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10728,7 +10728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10798,7 +10798,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10868,7 +10868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10938,7 +10938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11008,7 +11008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11031,7 +11031,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11101,7 +11101,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11171,7 +11171,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11241,7 +11241,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11311,7 +11311,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11381,7 +11381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11451,7 +11451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11521,7 +11521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11591,7 +11591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11661,7 +11661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11731,7 +11731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11801,7 +11801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11871,7 +11871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11941,7 +11941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12011,7 +12011,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12081,7 +12081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12151,7 +12151,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12221,7 +12221,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12291,7 +12291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12361,7 +12361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12431,7 +12431,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12501,7 +12501,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12571,7 +12571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12641,7 +12641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12711,7 +12711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12781,7 +12781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12851,7 +12851,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12921,7 +12921,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12991,7 +12991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13061,7 +13061,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13131,7 +13131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13195,7 +13195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13265,7 +13265,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13335,7 +13335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13358,7 +13358,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13428,7 +13428,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13451,7 +13451,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13474,7 +13474,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13544,7 +13544,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13614,7 +13614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13684,7 +13684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13754,7 +13754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13824,7 +13824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13894,7 +13894,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13964,7 +13964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <f t="shared" ref="A196:B259" si="11">A$2</f>
         <v>1</v>
@@ -13984,7 +13984,7 @@
         <v>21</v>
       </c>
       <c r="F196" s="5" t="str">
-        <f t="shared" ref="F196:G259" si="13">IF($D196="","",F$2)</f>
+        <f t="shared" ref="F196:G256" si="13">IF($D196="","",F$2)</f>
         <v>[2010, 2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G196" s="5" t="str">
@@ -14034,7 +14034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14104,7 +14104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14174,7 +14174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14244,7 +14244,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14314,7 +14314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14384,7 +14384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14454,7 +14454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14524,7 +14524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14594,7 +14594,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14664,7 +14664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14734,7 +14734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14804,7 +14804,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14874,7 +14874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14944,7 +14944,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15014,7 +15014,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15038,7 +15038,7 @@
       </c>
       <c r="U211" s="2"/>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15061,7 +15061,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15131,7 +15131,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15201,7 +15201,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15271,7 +15271,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15341,7 +15341,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15411,7 +15411,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15481,7 +15481,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15551,7 +15551,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15621,7 +15621,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15691,7 +15691,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15761,7 +15761,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15825,7 +15825,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15895,7 +15895,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15965,7 +15965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16035,7 +16035,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16105,7 +16105,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16175,7 +16175,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16198,7 +16198,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16268,7 +16268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16291,7 +16291,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16361,7 +16361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16431,7 +16431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16501,7 +16501,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16571,7 +16571,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16641,7 +16641,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16711,7 +16711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16734,7 +16734,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16804,7 +16804,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16874,7 +16874,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16944,7 +16944,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17014,7 +17014,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17084,7 +17084,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17154,7 +17154,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17224,7 +17224,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17294,7 +17294,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17364,7 +17364,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17428,7 +17428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17492,7 +17492,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17556,7 +17556,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17620,7 +17620,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17684,7 +17684,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17748,7 +17748,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17818,7 +17818,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17882,7 +17882,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17952,7 +17952,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -18016,7 +18016,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -18080,7 +18080,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -18144,7 +18144,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
         <f t="shared" ref="A260:B323" si="14">A$2</f>
         <v>1</v>
@@ -18208,7 +18208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18272,7 +18272,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18292,7 +18292,7 @@
       <c r="O262" s="2"/>
       <c r="U262" s="2"/>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18312,7 +18312,7 @@
       <c r="O263" s="2"/>
       <c r="U263" s="2"/>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18332,7 +18332,7 @@
       <c r="O264" s="2"/>
       <c r="U264" s="2"/>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18396,7 +18396,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18460,7 +18460,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18480,7 +18480,7 @@
         <v>21</v>
       </c>
       <c r="F267" s="5" t="str">
-        <f t="shared" ref="F260:G291" si="16">IF($D267="","",F$2)</f>
+        <f t="shared" ref="F267:G291" si="16">IF($D267="","",F$2)</f>
         <v>[2010, 2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G267" s="5" t="str">
@@ -18530,7 +18530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18600,7 +18600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18625,7 +18625,7 @@
       <c r="H269" s="2"/>
       <c r="U269" s="2"/>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18648,7 +18648,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18671,7 +18671,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18695,7 +18695,7 @@
       </c>
       <c r="H272" s="2"/>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18718,7 +18718,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18788,7 +18788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18812,7 +18812,7 @@
       </c>
       <c r="H275" s="2"/>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18882,7 +18882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18952,7 +18952,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18975,7 +18975,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19000,7 +19000,7 @@
       <c r="H279" s="2"/>
       <c r="S279" s="2"/>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19025,7 +19025,7 @@
       <c r="H280" s="2"/>
       <c r="U280" s="2"/>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19095,7 +19095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19165,7 +19165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19190,7 +19190,7 @@
       <c r="H283" s="2"/>
       <c r="U283" s="2"/>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19215,7 +19215,7 @@
       <c r="H284" s="2"/>
       <c r="U284" s="2"/>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19240,7 +19240,7 @@
       <c r="H285" s="2"/>
       <c r="U285" s="2"/>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19265,7 +19265,7 @@
       <c r="H286" s="2"/>
       <c r="U286" s="2"/>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19335,7 +19335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19405,7 +19405,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19428,7 +19428,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19451,7 +19451,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19474,7 +19474,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19497,7 +19497,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19520,7 +19520,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19543,7 +19543,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19566,7 +19566,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19589,7 +19589,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19612,7 +19612,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19635,7 +19635,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19658,7 +19658,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19681,7 +19681,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19704,7 +19704,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19727,7 +19727,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19750,7 +19750,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19773,7 +19773,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19796,7 +19796,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19819,7 +19819,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19842,7 +19842,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19865,7 +19865,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19935,7 +19935,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19958,7 +19958,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -20028,7 +20028,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -20098,7 +20098,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -20121,7 +20121,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -20191,7 +20191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -20214,7 +20214,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -20237,7 +20237,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -20260,7 +20260,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -20283,7 +20283,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -20306,7 +20306,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -20329,7 +20329,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -20352,7 +20352,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -20375,7 +20375,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -20400,7 +20400,7 @@
       <c r="H323" s="2"/>
       <c r="S323" s="2"/>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
         <f t="shared" ref="A324:B387" si="18">A$2</f>
         <v>1</v>
@@ -20424,7 +20424,7 @@
       </c>
       <c r="H324" s="2"/>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20449,7 +20449,7 @@
       <c r="H325" s="2"/>
       <c r="S325" s="2"/>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20474,7 +20474,7 @@
       <c r="H326" s="2"/>
       <c r="S326" s="2"/>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20497,7 +20497,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20520,7 +20520,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20543,7 +20543,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20568,7 +20568,7 @@
       <c r="H330" s="2"/>
       <c r="S330" s="2"/>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20594,7 +20594,7 @@
       <c r="L331" s="2"/>
       <c r="S331" s="2"/>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20620,7 +20620,7 @@
       <c r="M332" s="2"/>
       <c r="S332" s="2"/>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20644,7 +20644,7 @@
       </c>
       <c r="H333" s="2"/>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20668,7 +20668,7 @@
       </c>
       <c r="H334" s="2"/>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20692,7 +20692,7 @@
       </c>
       <c r="H335" s="2"/>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20715,7 +20715,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20741,7 +20741,7 @@
       <c r="K337" s="2"/>
       <c r="S337" s="2"/>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20767,7 +20767,7 @@
       <c r="K338" s="2"/>
       <c r="S338" s="2"/>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20793,7 +20793,7 @@
       <c r="K339" s="2"/>
       <c r="S339" s="2"/>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20817,7 +20817,7 @@
       </c>
       <c r="K340" s="2"/>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20887,7 +20887,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20957,7 +20957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -20983,7 +20983,7 @@
       <c r="K343" s="2"/>
       <c r="S343" s="2"/>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21009,7 +21009,7 @@
       <c r="K344" s="2"/>
       <c r="S344" s="2"/>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21033,7 +21033,7 @@
       </c>
       <c r="K345" s="2"/>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21056,7 +21056,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21091,7 +21091,7 @@
       <c r="S347" s="2"/>
       <c r="U347" s="2"/>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21121,7 +21121,7 @@
       <c r="S348" s="2"/>
       <c r="U348" s="2"/>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21151,7 +21151,7 @@
       <c r="S349" s="2"/>
       <c r="U349" s="2"/>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21181,7 +21181,7 @@
       <c r="S350" s="2"/>
       <c r="U350" s="2"/>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21251,7 +21251,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21281,7 +21281,7 @@
       <c r="S352" s="2"/>
       <c r="U352" s="2"/>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21351,7 +21351,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21381,7 +21381,7 @@
       <c r="S354" s="2"/>
       <c r="U354" s="2"/>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21411,7 +21411,7 @@
       <c r="S355" s="2"/>
       <c r="U355" s="2"/>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21481,7 +21481,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21516,7 +21516,7 @@
       <c r="S357" s="2"/>
       <c r="U357" s="2"/>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21586,7 +21586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21656,7 +21656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21686,7 +21686,7 @@
       <c r="S360" s="2"/>
       <c r="U360" s="2"/>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21716,7 +21716,7 @@
       <c r="S361" s="2"/>
       <c r="U361" s="2"/>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21746,7 +21746,7 @@
       <c r="S362" s="2"/>
       <c r="U362" s="2"/>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21776,7 +21776,7 @@
       <c r="S363" s="2"/>
       <c r="U363" s="2"/>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21806,7 +21806,7 @@
       <c r="S364" s="2"/>
       <c r="U364" s="2"/>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21836,7 +21836,7 @@
       <c r="S365" s="2"/>
       <c r="U365" s="2"/>
     </row>
-    <row r="366" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21866,7 +21866,7 @@
       <c r="S366" s="2"/>
       <c r="U366" s="2"/>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21901,7 +21901,7 @@
       <c r="S367" s="2"/>
       <c r="U367" s="2"/>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A368" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21931,7 +21931,7 @@
       <c r="S368" s="2"/>
       <c r="U368" s="2"/>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -21961,7 +21961,7 @@
       <c r="S369" s="2"/>
       <c r="U369" s="2"/>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A370" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22031,7 +22031,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22061,7 +22061,7 @@
       <c r="S371" s="2"/>
       <c r="U371" s="2"/>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22091,7 +22091,7 @@
       <c r="S372" s="2"/>
       <c r="U372" s="2"/>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A373" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22121,7 +22121,7 @@
       <c r="S373" s="2"/>
       <c r="U373" s="2"/>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A374" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22151,7 +22151,7 @@
       <c r="S374" s="2"/>
       <c r="U374" s="2"/>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A375" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22221,7 +22221,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A376" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22291,7 +22291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22361,7 +22361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A378" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22390,7 +22390,7 @@
       <c r="O378" s="2"/>
       <c r="U378" s="2"/>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A379" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22419,7 +22419,7 @@
       <c r="O379" s="2"/>
       <c r="U379" s="2"/>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A380" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22448,7 +22448,7 @@
       <c r="O380" s="2"/>
       <c r="U380" s="2"/>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A381" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22477,7 +22477,7 @@
       <c r="O381" s="2"/>
       <c r="U381" s="2"/>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A382" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22506,7 +22506,7 @@
       <c r="O382" s="2"/>
       <c r="U382" s="2"/>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22535,7 +22535,7 @@
       <c r="O383" s="2"/>
       <c r="U383" s="2"/>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A384" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22564,7 +22564,7 @@
       <c r="O384" s="2"/>
       <c r="U384" s="2"/>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22593,7 +22593,7 @@
       <c r="O385" s="2"/>
       <c r="U385" s="2"/>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A386" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22622,7 +22622,7 @@
       <c r="O386" s="2"/>
       <c r="U386" s="2"/>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -22692,7 +22692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
         <f t="shared" ref="A388:B451" si="22">A$2</f>
         <v>1</v>
@@ -22715,7 +22715,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -22738,7 +22738,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A390" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -22761,7 +22761,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -22784,7 +22784,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A392" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -22807,7 +22807,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -22830,7 +22830,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A394" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -22853,7 +22853,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -22876,7 +22876,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A396" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -22899,7 +22899,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -22922,7 +22922,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -22945,7 +22945,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -22968,7 +22968,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A400" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -22991,7 +22991,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23014,7 +23014,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A402" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23037,7 +23037,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23107,7 +23107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23130,7 +23130,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23153,7 +23153,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A406" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23223,7 +23223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23293,7 +23293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A408" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23316,7 +23316,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23339,7 +23339,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A410" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23362,7 +23362,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23432,7 +23432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A412" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23455,7 +23455,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23478,7 +23478,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A414" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23548,7 +23548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23618,7 +23618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23641,7 +23641,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23664,7 +23664,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A418" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23687,7 +23687,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23710,7 +23710,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A420" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23733,7 +23733,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23756,7 +23756,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A422" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23779,7 +23779,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23802,7 +23802,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A424" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23825,7 +23825,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23895,7 +23895,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A426" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -23965,7 +23965,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24035,7 +24035,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A428" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24105,7 +24105,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24175,7 +24175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A430" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24245,7 +24245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24315,7 +24315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A432" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24385,7 +24385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24408,7 +24408,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A434" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24431,7 +24431,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24454,7 +24454,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A436" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24477,7 +24477,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24500,7 +24500,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A438" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24523,7 +24523,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24546,7 +24546,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A440" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24569,7 +24569,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24639,7 +24639,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A442" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24709,7 +24709,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24732,7 +24732,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A444" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24755,7 +24755,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24778,7 +24778,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A446" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24801,7 +24801,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24824,7 +24824,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A448" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24847,7 +24847,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24870,7 +24870,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A450" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24893,7 +24893,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -24916,7 +24916,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A452" s="5">
         <f t="shared" ref="A452:B515" si="25">A$2</f>
         <v>1</v>
@@ -24986,7 +24986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25056,7 +25056,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A454" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25126,7 +25126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25196,7 +25196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A456" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25219,7 +25219,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25242,7 +25242,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A458" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25312,7 +25312,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25382,7 +25382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A460" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25405,7 +25405,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25475,7 +25475,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A462" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25495,7 +25495,7 @@
         <v>21</v>
       </c>
       <c r="F462" s="5" t="str">
-        <f t="shared" ref="F462:H525" si="27">IF($D462="","",F$2)</f>
+        <f t="shared" ref="F462:G525" si="27">IF($D462="","",F$2)</f>
         <v>[2010, 2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G462" s="5" t="str">
@@ -25545,7 +25545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25568,7 +25568,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25638,7 +25638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25708,7 +25708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A466" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25778,7 +25778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25801,7 +25801,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A468" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25871,7 +25871,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25941,7 +25941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A470" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -25964,7 +25964,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26034,7 +26034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A472" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26057,7 +26057,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26127,7 +26127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A474" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26197,7 +26197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26267,7 +26267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A476" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26290,7 +26290,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26313,7 +26313,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A478" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26383,7 +26383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26453,7 +26453,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A480" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26523,7 +26523,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="481" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26593,7 +26593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="482" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A482" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26663,7 +26663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="483" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26733,7 +26733,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="484" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A484" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26803,7 +26803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="485" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26873,7 +26873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="486" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A486" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26943,7 +26943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="487" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -26966,7 +26966,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A488" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -27036,7 +27036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="489" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -27106,7 +27106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="490" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A490" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -27176,7 +27176,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="491" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -27246,7 +27246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="492" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A492" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -27316,7 +27316,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="493" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -27386,7 +27386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="494" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A494" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -27456,7 +27456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="495" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -27526,7 +27526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="496" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A496" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -27596,7 +27596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="497" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -27613,7 +27613,7 @@
       <c r="F497" s="5"/>
       <c r="G497" s="5"/>
     </row>
-    <row r="498" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A498" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -27683,7 +27683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="499" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -27753,7 +27753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="500" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A500" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -27823,7 +27823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="501" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -27893,7 +27893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="502" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A502" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -27963,7 +27963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="503" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -28033,7 +28033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="504" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A504" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -28103,7 +28103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="505" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A505" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -28173,7 +28173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="506" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A506" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -28243,7 +28243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="507" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A507" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -28266,7 +28266,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A508" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -28336,7 +28336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="509" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A509" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -28406,7 +28406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="510" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A510" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -28476,7 +28476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="511" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A511" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -28546,7 +28546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="512" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A512" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -28616,7 +28616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="513" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A513" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -28686,7 +28686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="514" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A514" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -28756,7 +28756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="515" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A515" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -28826,17 +28826,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="516" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A516" s="5">
-        <f>A$2</f>
+        <f t="shared" ref="A516:B527" si="28">A$2</f>
         <v>1</v>
       </c>
       <c r="B516" s="5">
-        <f>B$2</f>
+        <f t="shared" si="28"/>
         <v>26</v>
       </c>
       <c r="C516">
-        <f t="shared" ref="C516:C527" si="28">+C515+1</f>
+        <f t="shared" ref="C516:C527" si="29">+C515+1</f>
         <v>537</v>
       </c>
       <c r="D516" s="8" t="s">
@@ -28896,17 +28896,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="517" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A517" s="5">
-        <f>A$2</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="B517" s="5">
-        <f>B$2</f>
+        <f t="shared" si="28"/>
         <v>26</v>
       </c>
       <c r="C517">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>538</v>
       </c>
       <c r="D517" s="8" t="s">
@@ -28966,17 +28966,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="518" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A518" s="5">
-        <f>A$2</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="B518" s="5">
-        <f>B$2</f>
+        <f t="shared" si="28"/>
         <v>26</v>
       </c>
       <c r="C518">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>539</v>
       </c>
       <c r="D518" s="8"/>
@@ -28989,17 +28989,17 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A519" s="5">
-        <f>A$2</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="B519" s="5">
-        <f>B$2</f>
+        <f t="shared" si="28"/>
         <v>26</v>
       </c>
       <c r="C519">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>540</v>
       </c>
       <c r="D519" s="8"/>
@@ -29012,17 +29012,17 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A520" s="5">
-        <f>A$2</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="B520" s="5">
-        <f>B$2</f>
+        <f t="shared" si="28"/>
         <v>26</v>
       </c>
       <c r="C520">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>541</v>
       </c>
       <c r="D520" s="8"/>
@@ -29035,17 +29035,17 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A521" s="5">
-        <f>A$2</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="B521" s="5">
-        <f>B$2</f>
+        <f t="shared" si="28"/>
         <v>26</v>
       </c>
       <c r="C521">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>542</v>
       </c>
       <c r="D521" s="8"/>
@@ -29058,17 +29058,17 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A522" s="5">
-        <f>A$2</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="B522" s="5">
-        <f>B$2</f>
+        <f t="shared" si="28"/>
         <v>26</v>
       </c>
       <c r="C522">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>543</v>
       </c>
       <c r="D522" s="8"/>
@@ -29081,17 +29081,17 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A523" s="5">
-        <f>A$2</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="B523" s="5">
-        <f>B$2</f>
+        <f t="shared" si="28"/>
         <v>26</v>
       </c>
       <c r="C523">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>544</v>
       </c>
       <c r="D523" s="8"/>
@@ -29104,17 +29104,17 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A524" s="5">
-        <f>A$2</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="B524" s="5">
-        <f>B$2</f>
+        <f t="shared" si="28"/>
         <v>26</v>
       </c>
       <c r="C524">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>545</v>
       </c>
       <c r="D524" s="8"/>
@@ -29127,17 +29127,17 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A525" s="5">
-        <f>A$2</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="B525" s="5">
-        <f>B$2</f>
+        <f t="shared" si="28"/>
         <v>26</v>
       </c>
       <c r="C525">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>546</v>
       </c>
       <c r="D525" s="8"/>
@@ -29150,49 +29150,49 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A526" s="5">
-        <f>A$2</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="B526" s="5">
-        <f>B$2</f>
+        <f t="shared" si="28"/>
         <v>26</v>
       </c>
       <c r="C526">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>547</v>
       </c>
       <c r="D526" s="8"/>
       <c r="F526" s="5" t="str">
-        <f t="shared" ref="F526:G527" si="29">IF($D526="","",F$2)</f>
+        <f t="shared" ref="F526:G527" si="30">IF($D526="","",F$2)</f>
         <v/>
       </c>
       <c r="G526" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="527" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A527" s="5">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="B527" s="5">
+        <f t="shared" si="28"/>
+        <v>26</v>
+      </c>
+      <c r="C527">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="527" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A527" s="5">
-        <f>A$2</f>
-        <v>1</v>
-      </c>
-      <c r="B527" s="5">
-        <f>B$2</f>
-        <v>26</v>
-      </c>
-      <c r="C527">
-        <f t="shared" si="28"/>
         <v>548</v>
       </c>
       <c r="D527" s="8"/>
       <c r="F527" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G527" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
